--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923FA0A-933D-4689-96A4-37CC9ECBFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEBC0A-72D2-416A-894C-5E1FFDD98EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>△(미완성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,14 @@
   </si>
   <si>
     <t>현재 구상중인 간략한 RPG포트폴리오 자료 체크리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△(미완성), 현재기능은 불안정하므로 타이머 사용한콤보방식으로 변경예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -533,7 +537,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>10</v>
@@ -541,23 +545,23 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>10</v>
@@ -565,23 +569,31 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>17</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEBC0A-72D2-416A-894C-5E1FFDD98EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF58B18-ACBF-420D-8593-1D41C8D17305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>플레이어 캐릭터 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>△(미완성), 현재기능은 불안정하므로 타이머 사용한콤보방식으로 변경예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +459,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF58B18-ACBF-420D-8593-1D41C8D17305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90FDC42-3E51-4D4C-8845-CB677DB1026B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>플레이어 캐릭터 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로딩화면 구현 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,6 +593,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90FDC42-3E51-4D4C-8845-CB677DB1026B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD50339-63BA-46BB-8986-36910AE1293B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="1455" windowWidth="26520" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD50339-63BA-46BB-8986-36910AE1293B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED59DE4-08A2-480E-992D-001D499FF6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1455" windowWidth="26520" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t xml:space="preserve">로딩화면 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">△ 판정은 구현안되고 액션만 구현 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +467,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -540,7 +544,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED59DE4-08A2-480E-992D-001D499FF6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54663DA2-E778-43C5-9EC2-14E474B7CD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="2190" windowWidth="26520" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54663DA2-E778-43C5-9EC2-14E474B7CD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB5D02F-B2D0-44A2-93F3-CD98F76357A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2190" windowWidth="26520" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="2535" windowWidth="26520" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t xml:space="preserve">△ 판정은 구현안되고 액션만 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 시간지연연출 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +471,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -563,33 +567,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
@@ -597,9 +601,17 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB5D02F-B2D0-44A2-93F3-CD98F76357A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDBE86-ABFC-47D5-BC56-8345E5C79DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="2535" windowWidth="26520" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스몬스터 패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 구상중인 간략한 RPG포트폴리오 자료 체크리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,10 @@
   </si>
   <si>
     <t xml:space="preserve">플레이어 시간지연연출 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 시야각(FOV)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -548,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -561,7 +561,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>2</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
@@ -599,25 +599,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="1" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDBE86-ABFC-47D5-BC56-8345E5C79DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A1EF7-A304-4E88-A772-E7949D476540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 피격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,14 @@
   </si>
   <si>
     <t>몬스터 시야각(FOV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타겟추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 전투로직</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +475,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -545,15 +549,15 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>10</v>
@@ -561,7 +565,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>2</v>
@@ -569,7 +573,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
@@ -580,20 +584,20 @@
         <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
@@ -601,15 +605,23 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>2</v>
@@ -617,7 +629,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A1EF7-A304-4E88-A772-E7949D476540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EFFAFB-D2ED-42B5-8C94-325C11207770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>플레이어 스킬슬롯 드래그&amp;드롭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -475,7 +471,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -549,23 +545,23 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>2</v>
@@ -573,7 +569,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
@@ -581,7 +577,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>2</v>
@@ -589,7 +585,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>2</v>
@@ -597,23 +593,23 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>2</v>
@@ -621,7 +617,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>2</v>
@@ -629,7 +625,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/작업 체크리스트.xlsx
+++ b/작업 체크리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\UnityStudy\PProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EFFAFB-D2ED-42B5-8C94-325C11207770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6C6B0E-4DC1-4683-9B6D-B7B3553E7E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>몬스터 전투로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코루틴매니저(yiled return null만관리가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +475,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,6 +619,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
